--- a/workflows/1006_Child Obligations_Workflow.xlsx
+++ b/workflows/1006_Child Obligations_Workflow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work@Ajay.Suryavamshi\SeleniumUIAutomation\Automation\workflows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT Automation\selenium\workflows\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -916,10 +916,10 @@
   <dimension ref="A1:AP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="AH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
